--- a/Cleaned-Data/2017-Passouts/Sem-4_2017_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2017-Passouts/Sem-4_2017_Passout_cleaned.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="173">
   <si>
     <t>M4-TH</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>CG-IA</t>
@@ -918,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="169.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -954,13 +951,13 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -969,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -984,22 +981,22 @@
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>7</v>
@@ -1008,10 +1005,10 @@
         <v>8</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>9</v>
@@ -1020,21 +1017,21 @@
         <v>10</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1114,7 +1111,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1188,13 +1185,13 @@
       <c r="Y3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" t="s">
-        <v>13</v>
+      <c r="Z3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1268,13 +1265,13 @@
       <c r="Y4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" t="s">
-        <v>13</v>
+      <c r="Z4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1348,13 +1345,13 @@
       <c r="Y5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" t="s">
-        <v>13</v>
+      <c r="Z5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1594,7 +1591,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1674,7 +1671,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1748,13 +1745,13 @@
       <c r="Y10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z10" t="s">
-        <v>13</v>
+      <c r="Z10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1834,7 +1831,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1908,13 +1905,13 @@
       <c r="Y12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z12" t="s">
-        <v>13</v>
+      <c r="Z12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1994,7 +1991,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2074,7 +2071,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2154,7 +2151,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2228,13 +2225,13 @@
       <c r="Y16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" t="s">
-        <v>13</v>
+      <c r="Z16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2314,7 +2311,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2394,7 +2391,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2468,13 +2465,13 @@
       <c r="Y19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z19" t="s">
-        <v>13</v>
+      <c r="Z19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2554,7 +2551,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2634,7 +2631,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2714,7 +2711,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2788,13 +2785,13 @@
       <c r="Y23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z23" t="s">
-        <v>13</v>
+      <c r="Z23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2874,7 +2871,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2954,7 +2951,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3028,13 +3025,13 @@
       <c r="Y26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z26" t="s">
-        <v>13</v>
+      <c r="Z26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3108,13 +3105,13 @@
       <c r="Y27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z27" t="s">
-        <v>13</v>
+      <c r="Z27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3194,7 +3191,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3274,7 +3271,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3354,7 +3351,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3434,7 +3431,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3514,7 +3511,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3594,7 +3591,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3674,7 +3671,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3754,7 +3751,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3834,7 +3831,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3914,7 +3911,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3988,13 +3985,13 @@
       <c r="Y38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z38" t="s">
-        <v>13</v>
+      <c r="Z38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4074,7 +4071,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4148,13 +4145,13 @@
       <c r="Y40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z40" t="s">
-        <v>13</v>
+      <c r="Z40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4234,7 +4231,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4308,13 +4305,13 @@
       <c r="Y42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z42" t="s">
-        <v>13</v>
+      <c r="Z42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4394,7 +4391,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4474,7 +4471,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4554,7 +4551,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4634,7 +4631,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4708,13 +4705,13 @@
       <c r="Y47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z47" t="s">
-        <v>13</v>
+      <c r="Z47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4794,7 +4791,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4874,7 +4871,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4948,13 +4945,13 @@
       <c r="Y50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z50" t="s">
-        <v>13</v>
+      <c r="Z50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -5034,7 +5031,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5114,7 +5111,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5194,7 +5191,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5274,7 +5271,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5348,13 +5345,13 @@
       <c r="Y55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z55" t="s">
-        <v>13</v>
+      <c r="Z55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5434,7 +5431,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -5514,7 +5511,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5588,13 +5585,13 @@
       <c r="Y58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z58" t="s">
-        <v>13</v>
+      <c r="Z58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5674,7 +5671,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5754,7 +5751,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5834,7 +5831,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -5908,13 +5905,13 @@
       <c r="Y62" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z62" t="s">
-        <v>13</v>
+      <c r="Z62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -5988,13 +5985,13 @@
       <c r="Y63" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z63" t="s">
-        <v>13</v>
+      <c r="Z63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -6068,13 +6065,13 @@
       <c r="Y64" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z64" t="s">
-        <v>13</v>
+      <c r="Z64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -6154,7 +6151,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -6234,7 +6231,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -6314,7 +6311,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -6388,13 +6385,13 @@
       <c r="Y68" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z68" t="s">
-        <v>13</v>
+      <c r="Z68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -6468,13 +6465,13 @@
       <c r="Y69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z69" t="s">
-        <v>13</v>
+      <c r="Z69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -6554,7 +6551,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -6634,7 +6631,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6714,7 +6711,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -6788,13 +6785,13 @@
       <c r="Y73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z73" t="s">
-        <v>13</v>
+      <c r="Z73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -6874,7 +6871,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -6954,7 +6951,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -7034,7 +7031,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -7114,7 +7111,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -7194,7 +7191,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -7274,7 +7271,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -7354,7 +7351,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -7434,7 +7431,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -7514,7 +7511,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -7594,7 +7591,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7674,7 +7671,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -7748,13 +7745,13 @@
       <c r="Y85" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z85" t="s">
-        <v>13</v>
+      <c r="Z85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7828,13 +7825,13 @@
       <c r="Y86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z86" t="s">
-        <v>13</v>
+      <c r="Z86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -7908,13 +7905,13 @@
       <c r="Y87" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z87" t="s">
-        <v>13</v>
+      <c r="Z87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -7994,7 +7991,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -8074,7 +8071,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -8148,13 +8145,13 @@
       <c r="Y90" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z90" t="s">
-        <v>13</v>
+      <c r="Z90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8228,13 +8225,13 @@
       <c r="Y91" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z91" t="s">
-        <v>13</v>
+      <c r="Z91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -8314,7 +8311,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -8394,7 +8391,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -8474,7 +8471,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -8554,7 +8551,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8634,7 +8631,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -8714,7 +8711,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -8788,13 +8785,13 @@
       <c r="Y98" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z98" t="s">
-        <v>13</v>
+      <c r="Z98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -8874,7 +8871,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8954,7 +8951,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -9034,7 +9031,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -9114,7 +9111,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -9194,7 +9191,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -9274,7 +9271,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -9348,13 +9345,13 @@
       <c r="Y105" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z105" t="s">
-        <v>13</v>
+      <c r="Z105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -9434,7 +9431,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -9508,13 +9505,13 @@
       <c r="Y107" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z107" t="s">
-        <v>13</v>
+      <c r="Z107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -9594,7 +9591,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -9668,13 +9665,13 @@
       <c r="Y109" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z109" t="s">
-        <v>13</v>
+      <c r="Z109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -9748,13 +9745,13 @@
       <c r="Y110" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z110" t="s">
-        <v>13</v>
+      <c r="Z110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -9834,7 +9831,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -9908,13 +9905,13 @@
       <c r="Y112" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z112" t="s">
-        <v>13</v>
+      <c r="Z112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -9988,13 +9985,13 @@
       <c r="Y113" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z113" t="s">
-        <v>13</v>
+      <c r="Z113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -10074,7 +10071,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -10154,7 +10151,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -10234,7 +10231,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -10308,13 +10305,13 @@
       <c r="Y117" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z117" t="s">
-        <v>13</v>
+      <c r="Z117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -10394,7 +10391,7 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -10474,7 +10471,7 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -10554,7 +10551,7 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -10634,7 +10631,7 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -10708,13 +10705,13 @@
       <c r="Y122" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z122" t="s">
-        <v>13</v>
+      <c r="Z122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -10794,7 +10791,7 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -10874,7 +10871,7 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -10954,7 +10951,7 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -11034,7 +11031,7 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -11114,7 +11111,7 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -11188,13 +11185,13 @@
       <c r="Y128" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z128" t="s">
-        <v>13</v>
+      <c r="Z128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -11274,7 +11271,7 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -11354,7 +11351,7 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -11434,7 +11431,7 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -11508,13 +11505,13 @@
       <c r="Y132" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z132" t="s">
-        <v>13</v>
+      <c r="Z132">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -11594,7 +11591,7 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -11668,13 +11665,13 @@
       <c r="Y134" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z134" t="s">
-        <v>13</v>
+      <c r="Z134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -11754,7 +11751,7 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -11834,7 +11831,7 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -11914,7 +11911,7 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -11988,13 +11985,13 @@
       <c r="Y138" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z138" t="s">
-        <v>13</v>
+      <c r="Z138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -12074,7 +12071,7 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -12154,7 +12151,7 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -12234,7 +12231,7 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -12314,7 +12311,7 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -12394,7 +12391,7 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -12474,7 +12471,7 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -12548,13 +12545,13 @@
       <c r="Y145" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z145" t="s">
-        <v>13</v>
+      <c r="Z145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B146">
         <v>0</v>
